--- a/data/trans_orig/P14A22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3A9219-F92E-48B4-9177-4F1B7C84BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61398490-612D-444F-8F83-3D60C5BF6744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BB30B288-5E08-429A-893C-607A8E53C4FD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D86410E-7233-454B-A192-0B3520EC09D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>76,68%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>62,32%</t>
+    <t>62,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>81,86%</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>11,86%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,68%</t>
+    <t>37,71%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,184 +138,184 @@
     <t>90,55%</t>
   </si>
   <si>
-    <t>62,31%</t>
+    <t>60,1%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>33,88%</t>
+    <t>43,24%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2015 (Tasa respuesta: 0,59%)</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2015 (Tasa respuesta: 0,59%)</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>38,49%</t>
+    <t>44,1%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -339,49 +339,49 @@
     <t>87,12%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>62,62%</t>
+    <t>66,68%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>33,32%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4E6156-CB80-4CD4-8A47-A1AE461D1A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ACC463-998E-4B31-967D-99CBCD20F50F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1538,7 +1538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27453E4-B9C7-416A-8496-B0CDBC23F704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57C836-BC95-4E2B-8458-0E57F3B9DAE6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61398490-612D-444F-8F83-3D60C5BF6744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6480833B-2D1B-4ACD-9D33-A3E5A2C8A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D86410E-7233-454B-A192-0B3520EC09D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA74DDF2-2F17-4421-904E-DB0BD75033C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="113">
   <si>
     <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -75,16 +75,16 @@
     <t>76,68%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>62,29%</t>
+    <t>64,1%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>81,86%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
   </si>
   <si>
     <t>11,86%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,71%</t>
+    <t>35,9%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,37 +138,37 @@
     <t>90,55%</t>
   </si>
   <si>
-    <t>60,1%</t>
+    <t>62,1%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>43,24%</t>
+    <t>33,76%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>64,4%</t>
+    <t>65,14%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>39,9%</t>
+    <t>37,9%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>56,76%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>35,6%</t>
+    <t>34,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -189,109 +189,103 @@
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>52,39%</t>
+    <t>60,84%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>47,61%</t>
+    <t>39,16%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>31,05%</t>
+    <t>29,95%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -300,13 +294,13 @@
     <t>86,28%</t>
   </si>
   <si>
-    <t>55,9%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>70,05%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -315,7 +309,7 @@
     <t>13,72%</t>
   </si>
   <si>
-    <t>44,1%</t>
+    <t>43,04%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -339,49 +333,49 @@
     <t>87,12%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>66,68%</t>
+    <t>64,76%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>33,32%</t>
+    <t>35,24%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
 </sst>
 </file>
@@ -793,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ACC463-998E-4B31-967D-99CBCD20F50F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8060575-D052-436F-BD80-21F503D891AF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1412,7 +1406,7 @@
         <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,13 +1421,13 @@
         <v>6085</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1442,13 +1436,13 @@
         <v>3096</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1457,13 +1451,13 @@
         <v>9180</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,7 +1513,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57C836-BC95-4E2B-8458-0E57F3B9DAE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC0D55E-23DF-4ACD-AAF6-93FEB7219F1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1555,7 +1549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1662,10 +1656,10 @@
         <v>7878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -1677,10 +1671,10 @@
         <v>8649</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -1692,13 +1686,13 @@
         <v>16528</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1707,13 @@
         <v>802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1728,13 +1722,13 @@
         <v>2396</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1743,13 +1737,13 @@
         <v>3197</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,10 +1811,10 @@
         <v>5994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -1835,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>30</v>
@@ -1847,10 +1841,10 @@
         <v>12435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -1868,13 +1862,13 @@
         <v>1977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1889,7 +1883,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1898,13 +1892,13 @@
         <v>1977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1990,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2005,7 +1999,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2029,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2044,7 +2038,7 @@
         <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2059,7 +2053,7 @@
         <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2121,13 @@
         <v>18789</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2142,10 +2136,10 @@
         <v>18404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -2157,13 +2151,13 @@
         <v>37194</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2172,13 @@
         <v>2779</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2193,13 +2187,13 @@
         <v>2396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2208,13 +2202,13 @@
         <v>5174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2264,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
